--- a/PandaMVC_H1/App_Data/Excel_客戶清單0.xlsx
+++ b/PandaMVC_H1/App_Data/Excel_客戶清單0.xlsx
@@ -28,10 +28,10 @@
     <x:t>多奇數位</x:t>
   </x:si>
   <x:si>
+    <x:t>測試</x:t>
+  </x:si>
+  <x:si>
     <x:t>潘大</x:t>
-  </x:si>
-  <x:si>
-    <x:t>測試</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -435,7 +435,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -446,7 +446,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
